--- a/data/Inventory.xlsx
+++ b/data/Inventory.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JNEWM\Documents\DNV\Admin\PerformanceLead\AcceptanceTesting\BifiOutboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F506919-E8BC-4AC9-B7F7-338846E7D244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E89B8-28ED-416A-972B-6F28B6AC5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="12204" windowHeight="9012" xr2:uid="{A6FE89B3-6A49-4D44-8B22-AFB6DB9868D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6FE89B3-6A49-4D44-8B22-AFB6DB9868D5}"/>
   </bookViews>
   <sheets>
     <sheet name="PVsyst Runs" sheetId="1" r:id="rId1"/>
+    <sheet name="Systems" sheetId="2" r:id="rId2"/>
+    <sheet name="Sites" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>prj_file</t>
   </si>
@@ -207,6 +209,33 @@
   </si>
   <si>
     <t>bifi_sim</t>
+  </si>
+  <si>
+    <t>SystemLabel</t>
+  </si>
+  <si>
+    <t>SAT1</t>
+  </si>
+  <si>
+    <t>SiteLabel</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>GCR</t>
   </si>
 </sst>
 </file>
@@ -558,24 +587,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C0805-EEE6-4653-AC35-86306A08A792}">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,85 +615,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -674,86 +646,23 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>245</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0.2</v>
-      </c>
-      <c r="P2">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="R2">
-        <v>1.5</v>
-      </c>
-      <c r="S2">
-        <v>25</v>
-      </c>
-      <c r="T2">
-        <v>1.2</v>
-      </c>
-      <c r="U2">
-        <v>-0.8</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0.15</v>
-      </c>
-      <c r="X2">
-        <v>0.5</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-      <c r="AB2">
-        <v>0.02</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -763,86 +672,26 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>245</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0.2</v>
-      </c>
-      <c r="P3">
-        <v>0.2</v>
-      </c>
-      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="R3">
-        <v>1.5</v>
-      </c>
-      <c r="S3">
-        <v>25</v>
-      </c>
-      <c r="T3">
-        <v>1.2</v>
-      </c>
-      <c r="U3">
-        <v>-0.8</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0.15</v>
-      </c>
-      <c r="X3">
-        <v>0.5</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3">
-        <v>5</v>
-      </c>
-      <c r="AB3">
-        <v>0.02</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -852,86 +701,26 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>245</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0.2</v>
-      </c>
-      <c r="P4">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="R4">
-        <v>1.5</v>
-      </c>
-      <c r="S4">
-        <v>25</v>
-      </c>
-      <c r="T4">
-        <v>1.2</v>
-      </c>
-      <c r="U4">
-        <v>-0.8</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0.15</v>
-      </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>0.02</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="J4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -941,86 +730,26 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>245</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0.2</v>
-      </c>
-      <c r="P5">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" t="s">
         <v>41</v>
       </c>
-      <c r="R5">
-        <v>1.5</v>
-      </c>
-      <c r="S5">
-        <v>25</v>
-      </c>
-      <c r="T5">
-        <v>1.2</v>
-      </c>
-      <c r="U5">
-        <v>-0.8</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0.15</v>
-      </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5">
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <v>0.02</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1030,86 +759,26 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>245</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0.2</v>
-      </c>
-      <c r="P6">
-        <v>0.6</v>
-      </c>
-      <c r="Q6" t="s">
         <v>41</v>
       </c>
-      <c r="R6">
-        <v>1.5</v>
-      </c>
-      <c r="S6">
-        <v>25</v>
-      </c>
-      <c r="T6">
-        <v>1.2</v>
-      </c>
-      <c r="U6">
-        <v>-0.8</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>0.15</v>
-      </c>
-      <c r="X6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6">
-        <v>5</v>
-      </c>
-      <c r="AB6">
-        <v>0.02</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1119,86 +788,23 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="b">
+      <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>245</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0.2</v>
-      </c>
-      <c r="P7">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" t="s">
         <v>21</v>
       </c>
-      <c r="R7">
-        <v>1.5</v>
-      </c>
-      <c r="S7">
-        <v>25</v>
-      </c>
-      <c r="T7">
-        <v>1.2</v>
-      </c>
-      <c r="U7">
-        <v>-0.8</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>0.15</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AB7">
-        <v>0.02</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1208,86 +814,29 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>245</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0.2</v>
-      </c>
-      <c r="P8">
-        <v>0.2</v>
-      </c>
-      <c r="Q8" t="s">
         <v>22</v>
       </c>
-      <c r="R8">
-        <v>1.5</v>
-      </c>
-      <c r="S8">
-        <v>25</v>
-      </c>
-      <c r="T8">
-        <v>1.2</v>
-      </c>
-      <c r="U8">
-        <v>-0.8</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0.15</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>0.02</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="J8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1297,83 +846,302 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>0.6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80662E9B-D151-46C4-A2FA-77D7AAE13F23}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="E2">
+        <v>-0.8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.15</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>245</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="X2">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3">
+        <v>-0.8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>0.02</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="Q3">
         <v>18</v>
       </c>
-      <c r="K9">
+      <c r="R3">
         <v>245</v>
       </c>
-      <c r="L9" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s">
+      <c r="T3" t="s">
         <v>18</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>0.2</v>
       </c>
-      <c r="P9">
-        <v>0.6</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9">
-        <v>1.5</v>
-      </c>
-      <c r="S9">
-        <v>25</v>
-      </c>
-      <c r="T9">
-        <v>1.2</v>
-      </c>
-      <c r="U9">
-        <v>-0.8</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0.15</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9">
-        <v>5</v>
-      </c>
-      <c r="AB9">
-        <v>0.02</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>55</v>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC4750-7E70-41E8-B66E-8513B63E03CB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="C2">
+        <v>-111.983</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inventory.xlsx
+++ b/data/Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JNEWM\Documents\DNV\Admin\PerformanceLead\AcceptanceTesting\BifiOutboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E89B8-28ED-416A-972B-6F28B6AC5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8391850-85D6-4CE9-9ECE-0CAC8251F414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6FE89B3-6A49-4D44-8B22-AFB6DB9868D5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>prj_file</t>
   </si>
@@ -236,6 +236,30 @@
   </si>
   <si>
     <t>GCR</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>dayfirst</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Bifaciality</t>
+  </si>
+  <si>
+    <t>date_format</t>
+  </si>
+  <si>
+    <t>%m/%d/%y %H:%M</t>
+  </si>
+  <si>
+    <t>StrucShd</t>
+  </si>
+  <si>
+    <t>BakMismatch</t>
   </si>
 </sst>
 </file>
@@ -587,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C0805-EEE6-4653-AC35-86306A08A792}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,12 +623,13 @@
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,16 +652,34 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -655,14 +698,32 @@
       <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -684,14 +745,32 @@
       <c r="G3">
         <v>0.2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>44</v>
       </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3">
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,14 +792,32 @@
       <c r="G4">
         <v>0.2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>0.7</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4">
+        <v>0.05</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -742,14 +839,32 @@
       <c r="G5">
         <v>0.6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
       </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5">
+        <v>0.05</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -771,14 +886,32 @@
       <c r="G6">
         <v>0.6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>0.7</v>
+      </c>
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>47</v>
       </c>
+      <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6">
+        <v>0.05</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -797,14 +930,32 @@
       <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -827,16 +978,34 @@
         <v>0.2</v>
       </c>
       <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -859,13 +1028,31 @@
         <v>0.6</v>
       </c>
       <c r="H9">
+        <v>0.7</v>
+      </c>
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9">
+        <v>0.05</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80662E9B-D151-46C4-A2FA-77D7AAE13F23}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
